--- a/Tables/t4_ToT.xlsx
+++ b/Tables/t4_ToT.xlsx
@@ -21,10 +21,19 @@
     <t>Outcome</t>
   </si>
   <si>
+    <t>Male condom attitudes index</t>
+  </si>
+  <si>
     <t>Used male condom at most recent sex (0/1)</t>
   </si>
   <si>
-    <t>Male condom attitudes index</t>
+    <t>Contraceptive knowledge index</t>
+  </si>
+  <si>
+    <t>Modern contraceptive methods known (n)</t>
+  </si>
+  <si>
+    <t>Discussed contraceptive use with recent partner (0/1)</t>
   </si>
   <si>
     <t>Can identify a female condom (0/1)</t>
@@ -42,22 +51,22 @@
     <t>Used a female condom in last 6 months (0/1)</t>
   </si>
   <si>
-    <t>Contraceptive knowledge index</t>
-  </si>
-  <si>
-    <t>Modern contraceptive methods known (n)</t>
-  </si>
-  <si>
-    <t>Discussed contraceptive use with recent partner (0/1)</t>
-  </si>
-  <si>
     <t>Control</t>
   </si>
   <si>
+    <t xml:space="preserve">     0.11</t>
+  </si>
+  <si>
     <t xml:space="preserve">     0.41</t>
   </si>
   <si>
-    <t xml:space="preserve">     0.11</t>
+    <t xml:space="preserve">    -0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.62</t>
   </si>
   <si>
     <t xml:space="preserve">     0.50</t>
@@ -75,22 +84,22 @@
     <t xml:space="preserve">     0.02</t>
   </si>
   <si>
-    <t xml:space="preserve">    -0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.62</t>
-  </si>
-  <si>
     <t>Treatment</t>
   </si>
   <si>
+    <t xml:space="preserve">     0.10</t>
+  </si>
+  <si>
     <t xml:space="preserve">     0.45</t>
   </si>
   <si>
-    <t xml:space="preserve">     0.10</t>
+    <t xml:space="preserve">     0.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.88</t>
   </si>
   <si>
     <t xml:space="preserve">     0.83</t>
@@ -105,25 +114,25 @@
     <t xml:space="preserve">     0.09</t>
   </si>
   <si>
-    <t xml:space="preserve">     0.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     5.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.88</t>
-  </si>
-  <si>
     <t>CACE</t>
   </si>
   <si>
     <t>RD</t>
   </si>
   <si>
+    <t xml:space="preserve">     0.06</t>
+  </si>
+  <si>
     <t xml:space="preserve">    -0.03</t>
   </si>
   <si>
-    <t xml:space="preserve">     0.06</t>
+    <t xml:space="preserve">     0.74***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.52***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.25***</t>
   </si>
   <si>
     <t xml:space="preserve">     0.34***</t>
@@ -138,22 +147,22 @@
     <t xml:space="preserve">     0.07*</t>
   </si>
   <si>
-    <t xml:space="preserve">     0.74***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2.52***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.25***</t>
-  </si>
-  <si>
     <t>95% CI</t>
   </si>
   <si>
+    <t>(-0.18, 0.31)</t>
+  </si>
+  <si>
     <t>(-0.14, 0.09)</t>
   </si>
   <si>
-    <t>(-0.18, 0.31)</t>
+    <t>(0.52, 0.97)</t>
+  </si>
+  <si>
+    <t>(1.88, 3.17)</t>
+  </si>
+  <si>
+    <t>(0.17, 0.34)</t>
   </si>
   <si>
     <t>(0.25, 0.43)</t>
@@ -171,21 +180,15 @@
     <t>(0.00, 0.14)</t>
   </si>
   <si>
-    <t>(0.52, 0.97)</t>
-  </si>
-  <si>
-    <t>(1.88, 3.17)</t>
-  </si>
-  <si>
-    <t>(0.17, 0.34)</t>
-  </si>
-  <si>
     <t>OR</t>
   </si>
   <si>
     <t xml:space="preserve">     0.90</t>
   </si>
   <si>
+    <t xml:space="preserve">     4.32***</t>
+  </si>
+  <si>
     <t xml:space="preserve">     5.22***</t>
   </si>
   <si>
@@ -198,12 +201,12 @@
     <t xml:space="preserve">     4.94*</t>
   </si>
   <si>
-    <t xml:space="preserve">     4.32***</t>
-  </si>
-  <si>
     <t>(0.56, 1.43)</t>
   </si>
   <si>
+    <t>(2.26, 17.13)</t>
+  </si>
+  <si>
     <t>(3.01, 12.69)</t>
   </si>
   <si>
@@ -214,9 +217,6 @@
   </si>
   <si>
     <t>(1.11, 9.39)</t>
-  </si>
-  <si>
-    <t>(2.26, 17.13)</t>
   </si>
 </sst>
 </file>
@@ -326,10 +326,10 @@
         <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -349,10 +349,10 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -372,10 +372,10 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -389,16 +389,16 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -409,19 +409,19 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -432,19 +432,19 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -455,19 +455,19 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -478,7 +478,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -510,10 +510,10 @@
         <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
